--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UFRJ\ArqComp\EEL580_Arq_Comp_DGEMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C33E682C-0CD4-43A3-9FC5-204D5F9B4307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4929150F-60C7-494C-9573-E87251BD7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{7E55C500-F38A-4AFD-AD85-C7A4B6CA1215}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{7E55C500-F38A-4AFD-AD85-C7A4B6CA1215}"/>
   </bookViews>
   <sheets>
     <sheet name="GCC" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="5">
   <si>
     <t>256</t>
   </si>
@@ -624,14 +624,16 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -777,7 +779,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Performance DGEMM</a:t>
+              <a:t>Performance DGEMM com AVX</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1152,7 +1154,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1305,7 +1307,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Performance DGEMM </a:t>
+              <a:t>Performance DGEMM com ILP </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1703,7 +1705,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1856,7 +1858,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Performance DGEMM </a:t>
+              <a:t>Performance DGEMM com cache</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> blocking</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2300,7 +2310,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2453,7 +2463,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Performance DGEMM x matmul(Fortran) </a:t>
+              <a:t>Performance DGEMM x</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Fortran</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>(matmul) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2943,7 +2961,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3096,8 +3114,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Performance DGEMM x matmul(Fortran) </a:t>
+              <a:t>Performance C,</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Fortran e Python</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3141,7 +3164,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>GCC</c:v>
+            <c:v>GCC -O3</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3153,12 +3176,46 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Python!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GCC!$T$13:$X$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>GCC!$T$13:$X$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>GCC!$T$13:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -3170,9 +3227,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>593303.30000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4587716.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3199,12 +3253,46 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Python!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CB'!$B$13:$F$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'CB'!$B$13:$F$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'CB'!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -3216,9 +3304,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6947.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60972.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3226,6 +3311,83 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-81FB-4987-B2FB-AA73DB6B1FCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Fortran</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Python!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Fortran!$B$13:$F$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Fortran!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5300.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48253.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-81FB-4987-B2FB-AA73DB6B1FCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3245,12 +3407,46 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Python!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Python!$B$13:$F$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Python!$B$13:$E$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Python!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1626.6</c:v>
                 </c:pt>
@@ -3261,10 +3457,7 @@
                   <c:v>1420854.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12103160.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,13 +3503,16 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>AVX!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>Python!$B$2:$E$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
                         <c:v>256</c:v>
                       </c:pt>
@@ -3329,9 +3525,6 @@
                       <c:pt idx="3">
                         <c:v>4000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
-                        <c:v>8000</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -3339,14 +3532,17 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>AVX!$B$13:$F$13</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>AVX!$B$13:$F$13</c15:sqref>
+                          <c15:sqref>AVX!$B$13:$E$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
                         <c:v>8.3000000000000007</c:v>
                       </c:pt>
@@ -3358,9 +3554,6 @@
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>152389.20000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1805662.3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3389,18 +3582,50 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>ILP!$B$13:$F$13</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>ILP!$B$13:$F$13</c15:sqref>
+                          <c15:sqref>ILP!$B$13:$E$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
                         <c:v>4.7</c:v>
                       </c:pt>
@@ -3413,69 +3638,12 @@
                       <c:pt idx="3">
                         <c:v>47988.5</c:v>
                       </c:pt>
-                      <c:pt idx="4">
-                        <c:v>520734.7</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-81FB-4987-B2FB-AA73DB6B1FCC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:v>Fortran</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Fortran!$B$13:$F$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>3.3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>388.8</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5300.3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>48253.1</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>514486.9</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-81FB-4987-B2FB-AA73DB6B1FCC}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3666,7 +3834,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3819,8 +3987,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Performance DGEMM x matmul(Fortran) </a:t>
+              <a:t>Performance C com CB,</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Fortran, Python e Numpy</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3861,167 +4034,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>GCC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>GCC!$T$13:$X$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1952</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55084.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>593303.30000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4587716.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9698-472D-A685-2674AEF981B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>AVX</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>AVX!$B$2:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>AVX!$B$13:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>819.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15314.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>152389.20000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1805662.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9698-472D-A685-2674AEF981B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>ILP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>ILP!$B$13:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>432.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5348.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47988.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>520734.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9698-472D-A685-2674AEF981B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -4037,12 +4049,46 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Python!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CB'!$B$13:$F$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'CB'!$B$13:$F$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'CB'!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -4054,16 +4100,13 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6947.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60972.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9698-472D-A685-2674AEF981B1}"/>
+              <c16:uniqueId val="{00000001-B31B-4286-986C-3BAFE2D7CA7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4083,12 +4126,46 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Python!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fortran!$B$13:$F$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Fortran!$B$13:$F$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Fortran!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.3</c:v>
                 </c:pt>
@@ -4101,15 +4178,163 @@
                 <c:pt idx="3">
                   <c:v>48253.1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>514486.9</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B31B-4286-986C-3BAFE2D7CA7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Python!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Python!$B$13:$E$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Python!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1626.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159059.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1420854.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12103160.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9698-472D-A685-2674AEF981B1}"/>
+              <c16:uniqueId val="{00000003-B31B-4286-986C-3BAFE2D7CA7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Numpy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>256</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4000</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Numpy!$B$13:$F$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Numpy!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1572.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B31B-4286-986C-3BAFE2D7CA7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4125,6 +4350,259 @@
         <c:overlap val="-27"/>
         <c:axId val="380438624"/>
         <c:axId val="516763551"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>GCC -O3</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>GCC!$T$13:$X$13</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>GCC!$T$13:$W$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1952</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>55084.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>593303.30000000005</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-B31B-4286-986C-3BAFE2D7CA7D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>AVX</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>AVX!$B$13:$F$13</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>AVX!$B$13:$E$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>8.3000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>819.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15314.4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>152389.20000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-B31B-4286-986C-3BAFE2D7CA7D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>ILP</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Python!$B$2:$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>ILP!$B$13:$F$13</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>ILP!$B$13:$E$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>4.7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>432.4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5348.9</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>47988.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-B31B-4286-986C-3BAFE2D7CA7D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="380438624"/>
@@ -4309,7 +4787,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8501,10 +8979,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2530AB67-C9ED-4A6F-B674-781CC5D10D06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199C15E2-F718-476A-8093-9132A7793E0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8672,23 +9150,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8F3C86B2-69D2-4AC8-A7BC-1A1523794DE3}" name="Python" displayName="Python" ref="B2:F13" totalsRowCount="1">
-  <autoFilter ref="B2:F12" xr:uid="{8F3C86B2-69D2-4AC8-A7BC-1A1523794DE3}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8F3C86B2-69D2-4AC8-A7BC-1A1523794DE3}" name="Python" displayName="Python" ref="B2:E13" totalsRowCount="1">
+  <autoFilter ref="B2:E12" xr:uid="{8F3C86B2-69D2-4AC8-A7BC-1A1523794DE3}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7726CC14-8CC6-4B08-B728-CC5B910DA049}" name="256" totalsRowFunction="average"/>
     <tableColumn id="2" xr3:uid="{92997EA3-9C87-46E3-969D-36E41CF20945}" name="1000" totalsRowFunction="average"/>
     <tableColumn id="3" xr3:uid="{4CF3D0B9-EBF4-4285-9AD6-285DF3DEFB24}" name="2000" totalsRowFunction="average"/>
     <tableColumn id="4" xr3:uid="{5FED6BC6-1DF3-4607-9F52-BA309FEF1554}" name="4000" totalsRowFunction="average"/>
-    <tableColumn id="5" xr3:uid="{5BF9F265-68E9-4AFD-BC3C-EF8C4D65C981}" name="8000" totalsRowFunction="average"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{22E78EEE-D5F2-4111-A403-3FC437EDEF2D}" name="Ganho_Python_O_0" displayName="Ganho_Python_O_0" ref="H2:L5" totalsRowCount="1">
-  <autoFilter ref="H2:L4" xr:uid="{22E78EEE-D5F2-4111-A403-3FC437EDEF2D}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{22E78EEE-D5F2-4111-A403-3FC437EDEF2D}" name="Ganho_Python_O_0" displayName="Ganho_Python_O_0" ref="H2:K5" totalsRowCount="1">
+  <autoFilter ref="H2:K4" xr:uid="{22E78EEE-D5F2-4111-A403-3FC437EDEF2D}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3EBD1F08-2CE8-4CB8-AF66-67B7F43F2360}" name="256" totalsRowFunction="custom" dataDxfId="3">
       <calculatedColumnFormula>ILP[[#Totals],[256]]</calculatedColumnFormula>
       <totalsRowFormula>H3/H4</totalsRowFormula>
@@ -8705,20 +9182,16 @@
       <calculatedColumnFormula>AVX[[#Totals],[4000]]</calculatedColumnFormula>
       <totalsRowFormula>K3/K4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{85052B99-3ADB-44B7-B694-8469B4B0FC92}" name="8000" totalsRowFunction="custom">
-      <calculatedColumnFormula>AVX[[#Totals],[8000]]</calculatedColumnFormula>
-      <totalsRowFormula>L3/L4</totalsRowFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{280A1CE9-D8C3-4559-92D6-072553947C63}" name="Ganho_Python_CB" displayName="Ganho_Python_CB" ref="H7:L10" totalsRowCount="1">
-  <autoFilter ref="H7:L9" xr:uid="{280A1CE9-D8C3-4559-92D6-072553947C63}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B0690336-6E07-485C-90B0-B77127A31431}" name="256" totalsRowFunction="custom" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{280A1CE9-D8C3-4559-92D6-072553947C63}" name="Ganho_Python_CB" displayName="Ganho_Python_CB" ref="H7:K10" totalsRowCount="1">
+  <autoFilter ref="H7:K9" xr:uid="{280A1CE9-D8C3-4559-92D6-072553947C63}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B0690336-6E07-485C-90B0-B77127A31431}" name="256" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>CB[[#Totals],[256]]</calculatedColumnFormula>
       <totalsRowFormula>H8/H9</totalsRowFormula>
     </tableColumn>
@@ -8733,10 +9206,6 @@
     <tableColumn id="4" xr3:uid="{BB17E9C7-CF49-4456-8BF3-E6F102624CCF}" name="4000" totalsRowFunction="custom">
       <calculatedColumnFormula>AVX[[#Totals],[4000]]</calculatedColumnFormula>
       <totalsRowFormula>K8/K9</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{5237940E-43AD-425E-91DD-35866612AC69}" name="8000" totalsRowFunction="custom">
-      <calculatedColumnFormula>AVX[[#Totals],[8000]]</calculatedColumnFormula>
-      <totalsRowFormula>L8/L9</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8761,7 +9230,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{8F964EBA-8873-454D-ADB6-E12004BC59D4}" name="Ganho_Numpy_Python" displayName="Ganho_Numpy_Python" ref="H2:L5" totalsRowCount="1">
   <autoFilter ref="H2:L4" xr:uid="{8F964EBA-8873-454D-ADB6-E12004BC59D4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6CBC4708-CE29-431B-8959-FE6082C90EE4}" name="256" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{6CBC4708-CE29-431B-8959-FE6082C90EE4}" name="256" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>ILP[[#Totals],[256]]</calculatedColumnFormula>
       <totalsRowFormula>H3/H4</totalsRowFormula>
     </tableColumn>
@@ -9260,12 +9729,12 @@
       <selection activeCell="T3" sqref="T3:X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="24" width="10.5703125" customWidth="1"/>
+    <col min="2" max="24" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -9327,7 +9796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>72</v>
       </c>
@@ -9386,7 +9855,7 @@
         <v>4597987</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>78</v>
       </c>
@@ -9445,7 +9914,7 @@
         <v>4593063</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>63</v>
       </c>
@@ -9504,7 +9973,7 @@
         <v>4605850</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>81</v>
       </c>
@@ -9563,7 +10032,7 @@
         <v>4612997</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>80</v>
       </c>
@@ -9622,7 +10091,7 @@
         <v>4614899</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>89</v>
       </c>
@@ -9681,7 +10150,7 @@
         <v>4609190</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>70</v>
       </c>
@@ -9740,7 +10209,7 @@
         <v>4597936</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>104</v>
       </c>
@@ -9799,7 +10268,7 @@
         <v>4605554</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>81</v>
       </c>
@@ -9858,7 +10327,7 @@
         <v>4484159</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>82</v>
       </c>
@@ -9917,7 +10386,7 @@
         <v>4555530</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>SUBTOTAL(101,O_0[256])</f>
         <v>80</v>
@@ -10017,12 +10486,12 @@
   <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10039,7 +10508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>6</v>
       </c>
@@ -10056,7 +10525,7 @@
         <v>1799857</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -10088,7 +10557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>15</v>
       </c>
@@ -10125,7 +10594,7 @@
         <v>4587716.5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>15</v>
       </c>
@@ -10162,7 +10631,7 @@
         <v>1805662.3</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>15</v>
       </c>
@@ -10199,7 +10668,7 @@
         <v>2.5407389299759982</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>15</v>
       </c>
@@ -10216,7 +10685,7 @@
         <v>1791790</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>15</v>
       </c>
@@ -10237,7 +10706,7 @@
         <v>2.9405878875811924</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0</v>
       </c>
@@ -10254,7 +10723,7 @@
         <v>1813662</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -10271,7 +10740,7 @@
         <v>1797204</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0</v>
       </c>
@@ -10288,7 +10757,7 @@
         <v>1808922</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>SUBTOTAL(101,AVX[256])</f>
         <v>8.3000000000000007</v>
@@ -10324,13 +10793,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153F470-80DC-481C-A572-AEB1B5C7481B}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10347,7 +10816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>12</v>
       </c>
@@ -10379,7 +10848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -10416,7 +10885,7 @@
         <v>1805662.3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -10453,7 +10922,7 @@
         <v>520734.7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>15</v>
       </c>
@@ -10490,7 +10959,7 @@
         <v>3.4675282826360525</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0</v>
       </c>
@@ -10507,7 +10976,7 @@
         <v>521405</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -10524,7 +10993,7 @@
         <v>514730</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>4</v>
       </c>
@@ -10541,7 +11010,7 @@
         <v>522181</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -10558,7 +11027,7 @@
         <v>520235</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -10575,7 +11044,7 @@
         <v>522562</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>15</v>
       </c>
@@ -10592,7 +11061,7 @@
         <v>525520</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>SUBTOTAL(101,ILP[256])</f>
         <v>4.7</v>
@@ -10629,15 +11098,15 @@
   <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10654,7 +11123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -10686,7 +11155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -10723,7 +11192,7 @@
         <v>520734.7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -10760,7 +11229,7 @@
         <v>60972.7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0</v>
       </c>
@@ -10797,7 +11266,7 @@
         <v>8.5404566305904126</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0</v>
       </c>
@@ -10814,7 +11283,7 @@
         <v>60630</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -10846,7 +11315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -10883,7 +11352,7 @@
         <v>6701024.7999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -10920,7 +11389,7 @@
         <v>60972.7</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -10957,7 +11426,7 @@
         <v>109.90205124588546</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0</v>
       </c>
@@ -10974,7 +11443,7 @@
         <v>59637</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>SUBTOTAL(101,CB[256])</f>
         <v>0.8</v>
@@ -11012,12 +11481,12 @@
   <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11049,7 +11518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>4</v>
       </c>
@@ -11086,7 +11555,7 @@
         <v>514486.9</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -11123,7 +11592,7 @@
         <v>60972.7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -11160,7 +11629,7 @@
         <v>8.4379878207788082</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -11177,7 +11646,7 @@
         <v>512456</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -11209,7 +11678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
@@ -11246,7 +11715,7 @@
         <v>514486.9</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>4</v>
       </c>
@@ -11283,7 +11752,7 @@
         <v>520734.7</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3</v>
       </c>
@@ -11320,7 +11789,7 @@
         <v>0.98800195185763506</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
@@ -11337,7 +11806,7 @@
         <v>513403</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -11354,7 +11823,7 @@
         <v>515546</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>SUBTOTAL(101,Fortran[256])</f>
         <v>3.3</v>
@@ -11391,13 +11860,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9094934B-4CE7-4AA4-B8D3-65EA3811CDA3}">
   <dimension ref="B2:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11410,9 +11879,6 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
@@ -11425,9 +11891,6 @@
       <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
       <c r="N2">
         <v>1572</v>
       </c>
@@ -11459,7 +11922,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1572</v>
       </c>
@@ -11468,6 +11931,9 @@
       </c>
       <c r="D3">
         <v>1422662</v>
+      </c>
+      <c r="E3">
+        <v>12058142</v>
       </c>
       <c r="H3">
         <f>Python[[#Totals],[256]]</f>
@@ -11481,13 +11947,9 @@
         <f>Python[[#Totals],[2000]]</f>
         <v>1420854.6</v>
       </c>
-      <c r="K3" t="e">
+      <c r="K3">
         <f>Python[[#Totals],[4000]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" t="e">
-        <f>Python[[#Totals],[8000]]</f>
-        <v>#DIV/0!</v>
+        <v>12103160.6</v>
       </c>
       <c r="N3">
         <v>170429</v>
@@ -11520,7 +11982,7 @@
         <v>158608</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1912</v>
       </c>
@@ -11530,25 +11992,24 @@
       <c r="D4">
         <v>1443178</v>
       </c>
+      <c r="E4">
+        <v>11955689</v>
+      </c>
       <c r="H4">
-        <f>O_0[[#Totals],[256]]</f>
-        <v>80</v>
+        <f>O_3[[#Totals],[256]]</f>
+        <v>19</v>
       </c>
       <c r="I4">
-        <f>O_0[[#Totals],[1000]]</f>
-        <v>6478.5</v>
+        <f>O_3[[#Totals],[1000]]</f>
+        <v>1952</v>
       </c>
       <c r="J4">
-        <f>O_0[[#Totals],[2000]]</f>
-        <v>86946.8</v>
+        <f>O_3[[#Totals],[2000]]</f>
+        <v>55084.2</v>
       </c>
       <c r="K4">
-        <f>O_0[[#Totals],[4000]]</f>
-        <v>766364.4</v>
-      </c>
-      <c r="L4">
-        <f>O_0[[#Totals],[8000]]</f>
-        <v>6701024.7999999998</v>
+        <f>O_3[[#Totals],[4000]]</f>
+        <v>593303.30000000005</v>
       </c>
       <c r="N4">
         <v>1422662</v>
@@ -11581,7 +12042,7 @@
         <v>1419077</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1642</v>
       </c>
@@ -11591,28 +12052,57 @@
       <c r="D5">
         <v>1411213</v>
       </c>
+      <c r="E5">
+        <v>12059280</v>
+      </c>
       <c r="H5">
         <f>H3/H4</f>
-        <v>20.3325</v>
+        <v>85.610526315789471</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:L5" si="0">I3/I4</f>
-        <v>24.551917882225826</v>
+        <f t="shared" ref="I5:K5" si="0">I3/I4</f>
+        <v>81.485450819672138</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>16.341654897017488</v>
-      </c>
-      <c r="K5" t="e">
+        <v>25.794231376692412</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>20.399617868297714</v>
+      </c>
+      <c r="N5">
+        <v>12058142</v>
+      </c>
+      <c r="O5">
+        <v>11955689</v>
+      </c>
+      <c r="P5">
+        <v>12059280</v>
+      </c>
+      <c r="Q5">
+        <v>12254582</v>
+      </c>
+      <c r="R5">
+        <v>12330081</v>
+      </c>
+      <c r="S5">
+        <v>12138984</v>
+      </c>
+      <c r="T5">
+        <v>12052819</v>
+      </c>
+      <c r="U5">
+        <v>12036472</v>
+      </c>
+      <c r="V5">
+        <v>12075684</v>
+      </c>
+      <c r="W5">
+        <v>12069873</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1551</v>
       </c>
@@ -11622,8 +12112,11 @@
       <c r="D6">
         <v>1410666</v>
       </c>
+      <c r="E6">
+        <v>12254582</v>
+      </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1521</v>
       </c>
@@ -11633,6 +12126,9 @@
       <c r="D7">
         <v>1414102</v>
       </c>
+      <c r="E7">
+        <v>12330081</v>
+      </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
@@ -11645,11 +12141,8 @@
       <c r="K7" t="s">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1533</v>
       </c>
@@ -11658,6 +12151,9 @@
       </c>
       <c r="D8">
         <v>1424041</v>
+      </c>
+      <c r="E8">
+        <v>12138984</v>
       </c>
       <c r="H8">
         <f>Python[[#Totals],[256]]</f>
@@ -11671,16 +12167,12 @@
         <f>Python[[#Totals],[2000]]</f>
         <v>1420854.6</v>
       </c>
-      <c r="K8" t="e">
+      <c r="K8">
         <f>Python[[#Totals],[4000]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" t="e">
-        <f>Python[[#Totals],[8000]]</f>
-        <v>#DIV/0!</v>
+        <v>12103160.6</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1491</v>
       </c>
@@ -11689,6 +12181,9 @@
       </c>
       <c r="D9">
         <v>1419575</v>
+      </c>
+      <c r="E9">
+        <v>12052819</v>
       </c>
       <c r="H9">
         <f>CB[[#Totals],[256]]</f>
@@ -11706,12 +12201,8 @@
         <f>CB[[#Totals],[4000]]</f>
         <v>6947.7</v>
       </c>
-      <c r="L9">
-        <f>CB[[#Totals],[8000]]</f>
-        <v>60972.7</v>
-      </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1694</v>
       </c>
@@ -11720,29 +12211,28 @@
       </c>
       <c r="D10">
         <v>1425199</v>
+      </c>
+      <c r="E10">
+        <v>12036472</v>
       </c>
       <c r="H10">
         <f>H8/H9</f>
         <v>2033.2499999999998</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:L10" si="1">I8/I9</f>
+        <f t="shared" ref="I10:K10" si="1">I8/I9</f>
         <v>1747.9076923076923</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
         <v>1991.6661059714047</v>
       </c>
-      <c r="K10" t="e">
+      <c r="K10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1742.0384587705285</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1631</v>
       </c>
@@ -11752,8 +12242,11 @@
       <c r="D11">
         <v>1418833</v>
       </c>
+      <c r="E11">
+        <v>12075684</v>
+      </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1719</v>
       </c>
@@ -11763,8 +12256,11 @@
       <c r="D12">
         <v>1419077</v>
       </c>
+      <c r="E12">
+        <v>12069873</v>
+      </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>SUBTOTAL(101,Python[256])</f>
         <v>1626.6</v>
@@ -11777,13 +12273,9 @@
         <f>SUBTOTAL(101,Python[2000])</f>
         <v>1420854.6</v>
       </c>
-      <c r="E13" t="e">
+      <c r="E13">
         <f>SUBTOTAL(101,Python[4000])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" t="e">
-        <f>SUBTOTAL(101,Python[8000])</f>
-        <v>#DIV/0!</v>
+        <v>12103160.6</v>
       </c>
     </row>
   </sheetData>
@@ -11799,15 +12291,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DADCB7-EFF3-4D78-80DC-BC5CBCF127A2}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11838,74 +12330,256 @@
       <c r="L2" t="s">
         <v>4</v>
       </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H3" t="e">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>153</v>
+      </c>
+      <c r="E3">
+        <v>1201</v>
+      </c>
+      <c r="H3">
+        <f>Python[[#Totals],[256]]</f>
+        <v>1626.6</v>
+      </c>
+      <c r="I3">
+        <f>Python[[#Totals],[1000]]</f>
+        <v>159059.6</v>
+      </c>
+      <c r="J3">
+        <f>Python[[#Totals],[2000]]</f>
+        <v>1420854.6</v>
+      </c>
+      <c r="K3">
+        <f>Python[[#Totals],[4000]]</f>
+        <v>12103160.6</v>
+      </c>
+      <c r="L3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N3">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>23</v>
+      </c>
+      <c r="Q3">
+        <v>25</v>
+      </c>
+      <c r="R3">
+        <v>35</v>
+      </c>
+      <c r="S3">
+        <v>16</v>
+      </c>
+      <c r="T3">
+        <v>17</v>
+      </c>
+      <c r="U3">
+        <v>16</v>
+      </c>
+      <c r="V3">
+        <v>17</v>
+      </c>
+      <c r="W3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>229</v>
+      </c>
+      <c r="E4">
+        <v>1247</v>
+      </c>
+      <c r="H4">
         <f>Numpy[[#Totals],[256]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
         <f>Numpy[[#Totals],[1000]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" t="e">
+        <v>20.9</v>
+      </c>
+      <c r="J4">
         <f>Numpy[[#Totals],[2000]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" t="e">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="K4">
         <f>Numpy[[#Totals],[4000]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" t="e">
+        <v>1572.7</v>
+      </c>
+      <c r="L4" t="e">
         <f>Numpy[[#Totals],[8000]]</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="N4">
+        <v>153</v>
+      </c>
+      <c r="O4">
+        <v>229</v>
+      </c>
+      <c r="P4">
+        <v>177</v>
+      </c>
+      <c r="Q4">
+        <v>133</v>
+      </c>
+      <c r="R4">
+        <v>121</v>
+      </c>
+      <c r="S4">
+        <v>154</v>
+      </c>
+      <c r="T4">
+        <v>143</v>
+      </c>
+      <c r="U4">
+        <v>127</v>
+      </c>
+      <c r="V4">
+        <v>153</v>
+      </c>
+      <c r="W4">
+        <v>172</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H4">
-        <f>Python[[#Totals],[256]]</f>
-        <v>1626.6</v>
-      </c>
-      <c r="I4">
-        <f>Python[[#Totals],[1000]]</f>
-        <v>159059.6</v>
-      </c>
-      <c r="J4">
-        <f>Python[[#Totals],[2000]]</f>
-        <v>1420854.6</v>
-      </c>
-      <c r="K4" t="e">
-        <f>Python[[#Totals],[4000]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" t="e">
-        <f>Python[[#Totals],[8000]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H5" t="e">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>177</v>
+      </c>
+      <c r="E5">
+        <v>1339</v>
+      </c>
+      <c r="H5">
         <f>H3/H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" t="e">
+        <v>3253.2</v>
+      </c>
+      <c r="I5">
         <f t="shared" ref="I5:L5" si="0">I3/I4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" t="e">
+        <v>7610.5071770334935</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" t="e">
+        <v>9096.3802816901425</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>7695.7847014688114</v>
       </c>
       <c r="L5" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
+      </c>
+      <c r="N5">
+        <v>1201</v>
+      </c>
+      <c r="O5">
+        <v>1247</v>
+      </c>
+      <c r="P5">
+        <v>1339</v>
+      </c>
+      <c r="Q5">
+        <v>1141</v>
+      </c>
+      <c r="R5">
+        <v>3826</v>
+      </c>
+      <c r="S5">
+        <v>1481</v>
+      </c>
+      <c r="T5">
+        <v>1526</v>
+      </c>
+      <c r="U5">
+        <v>1498</v>
+      </c>
+      <c r="V5">
+        <v>1280</v>
+      </c>
+      <c r="W5">
+        <v>1188</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>133</v>
+      </c>
+      <c r="E6">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>121</v>
+      </c>
+      <c r="E7">
+        <v>3826</v>
+      </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
@@ -11922,88 +12596,152 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H8" t="e">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>154</v>
+      </c>
+      <c r="E8">
+        <v>1481</v>
+      </c>
+      <c r="H8">
+        <f>CB[[#Totals],[256]]</f>
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <f>CB[[#Totals],[1000]]</f>
+        <v>91</v>
+      </c>
+      <c r="J8">
+        <f>CB[[#Totals],[2000]]</f>
+        <v>713.4</v>
+      </c>
+      <c r="K8">
+        <f>CB[[#Totals],[4000]]</f>
+        <v>6947.7</v>
+      </c>
+      <c r="L8">
+        <f>CB[[#Totals],[8000]]</f>
+        <v>60972.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>143</v>
+      </c>
+      <c r="E9">
+        <v>1526</v>
+      </c>
+      <c r="H9">
         <f>Numpy[[#Totals],[256]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
         <f>Numpy[[#Totals],[1000]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" t="e">
+        <v>20.9</v>
+      </c>
+      <c r="J9">
         <f>Numpy[[#Totals],[2000]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" t="e">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="K9">
         <f>Numpy[[#Totals],[4000]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" t="e">
+        <v>1572.7</v>
+      </c>
+      <c r="L9" t="e">
         <f>Numpy[[#Totals],[8000]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H9">
-        <f>O_3[[#Totals],[256]]</f>
-        <v>19</v>
-      </c>
-      <c r="I9">
-        <f>O_3[[#Totals],[1000]]</f>
-        <v>1952</v>
-      </c>
-      <c r="J9">
-        <f>O_3[[#Totals],[2000]]</f>
-        <v>55084.2</v>
-      </c>
-      <c r="K9">
-        <f>O_3[[#Totals],[4000]]</f>
-        <v>593303.30000000005</v>
-      </c>
-      <c r="L9">
-        <f>O_3[[#Totals],[8000]]</f>
-        <v>4587716.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H10" t="e">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>1498</v>
+      </c>
+      <c r="H10">
         <f>H8/H9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" t="e">
+        <v>1.6</v>
+      </c>
+      <c r="I10">
         <f t="shared" ref="I10:L10" si="1">I8/I9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" t="e">
+        <v>4.3540669856459333</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" t="e">
+        <v>4.567221510883483</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.4176893240923247</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="e">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>172</v>
+      </c>
+      <c r="E12">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13">
         <f>SUBTOTAL(101,Numpy[256])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
         <f>SUBTOTAL(101,Numpy[1000])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" t="e">
+        <v>20.9</v>
+      </c>
+      <c r="D13">
         <f>SUBTOTAL(101,Numpy[2000])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" t="e">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="E13">
         <f>SUBTOTAL(101,Numpy[4000])</f>
-        <v>#DIV/0!</v>
+        <v>1572.7</v>
       </c>
       <c r="F13" t="e">
         <f>SUBTOTAL(101,Numpy[8000])</f>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UFRJ\ArqComp\EEL580_Arq_Comp_DGEMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4929150F-60C7-494C-9573-E87251BD7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E3E7AD-89C9-42BD-90BA-D4810E9AAE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{7E55C500-F38A-4AFD-AD85-C7A4B6CA1215}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E55C500-F38A-4AFD-AD85-C7A4B6CA1215}"/>
   </bookViews>
   <sheets>
     <sheet name="GCC" sheetId="5" r:id="rId1"/>
@@ -325,7 +325,7 @@
                   <c:v>585086.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4667665.5999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9723,10 +9723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729CA2B9-7416-4431-A447-190C7DDEF432}">
-  <dimension ref="B2:X13"/>
+  <dimension ref="B2:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:X13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9824,6 +9824,9 @@
       <c r="K3">
         <v>590097</v>
       </c>
+      <c r="L3">
+        <v>4567168</v>
+      </c>
       <c r="N3">
         <v>15</v>
       </c>
@@ -9883,6 +9886,9 @@
       <c r="K4">
         <v>584462</v>
       </c>
+      <c r="L4">
+        <v>4602976</v>
+      </c>
       <c r="N4">
         <v>16</v>
       </c>
@@ -9942,6 +9948,9 @@
       <c r="K5">
         <v>583574</v>
       </c>
+      <c r="L5">
+        <v>4636538</v>
+      </c>
       <c r="N5">
         <v>15</v>
       </c>
@@ -10001,6 +10010,9 @@
       <c r="K6">
         <v>583662</v>
       </c>
+      <c r="L6">
+        <v>4653389</v>
+      </c>
       <c r="N6">
         <v>15</v>
       </c>
@@ -10060,6 +10072,9 @@
       <c r="K7">
         <v>584953</v>
       </c>
+      <c r="L7">
+        <v>4667072</v>
+      </c>
       <c r="N7">
         <v>15</v>
       </c>
@@ -10119,6 +10134,9 @@
       <c r="K8">
         <v>581620</v>
       </c>
+      <c r="L8">
+        <v>4665408</v>
+      </c>
       <c r="N8">
         <v>26</v>
       </c>
@@ -10178,6 +10196,9 @@
       <c r="K9">
         <v>583311</v>
       </c>
+      <c r="L9">
+        <v>4627129</v>
+      </c>
       <c r="N9">
         <v>22</v>
       </c>
@@ -10237,6 +10258,9 @@
       <c r="K10">
         <v>589703</v>
       </c>
+      <c r="L10">
+        <v>4786743</v>
+      </c>
       <c r="N10">
         <v>15</v>
       </c>
@@ -10296,6 +10320,9 @@
       <c r="K11">
         <v>584229</v>
       </c>
+      <c r="L11">
+        <v>4749826</v>
+      </c>
       <c r="N11">
         <v>31</v>
       </c>
@@ -10354,6 +10381,9 @@
       </c>
       <c r="K12">
         <v>585253</v>
+      </c>
+      <c r="L12">
+        <v>4720407</v>
       </c>
       <c r="N12">
         <v>31</v>
@@ -10423,9 +10453,9 @@
         <f>SUBTOTAL(101,O_1[4000])</f>
         <v>585086.4</v>
       </c>
-      <c r="L13" t="e">
+      <c r="L13">
         <f>SUBTOTAL(101,O_1[8000])</f>
-        <v>#DIV/0!</v>
+        <v>4667665.5999999996</v>
       </c>
       <c r="N13">
         <f>SUBTOTAL(101,O_2[256])</f>
@@ -10466,6 +10496,38 @@
       <c r="X13">
         <f>SUBTOTAL(101,O_3[8000])</f>
         <v>4587716.5</v>
+      </c>
+    </row>
+    <row r="17" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>4567168</v>
+      </c>
+      <c r="L17">
+        <v>4602976</v>
+      </c>
+      <c r="M17">
+        <v>4636538</v>
+      </c>
+      <c r="N17">
+        <v>4653389</v>
+      </c>
+      <c r="O17">
+        <v>4667072</v>
+      </c>
+      <c r="P17">
+        <v>4665408</v>
+      </c>
+      <c r="Q17">
+        <v>4627129</v>
+      </c>
+      <c r="R17">
+        <v>4786743</v>
+      </c>
+      <c r="S17">
+        <v>4749826</v>
+      </c>
+      <c r="T17">
+        <v>4720407</v>
       </c>
     </row>
   </sheetData>
@@ -12293,7 +12355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DADCB7-EFF3-4D78-80DC-BC5CBCF127A2}">
   <dimension ref="B2:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8:K10"/>
     </sheetView>
   </sheetViews>
